--- a/230630_fsis_initialLU.xlsx
+++ b/230630_fsis_initialLU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\jna_nol\asus\msi\work\farmer welfare\PSD\FI Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nianj\Documents\PS directory git\psd0723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{307345B0-974A-42AC-8E29-E5DCABFD3D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98E8F1F-6B83-4229-B243-55C6C0013216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26" yWindow="2786" windowWidth="16457" windowHeight="8434" xr2:uid="{54FA8C92-09BF-453D-9A91-3276EEFC77E0}"/>
+    <workbookView xWindow="514" yWindow="2511" windowWidth="16457" windowHeight="8340" xr2:uid="{54FA8C92-09BF-453D-9A91-3276EEFC77E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>P</t>
   </si>
@@ -90,19 +90,36 @@
   </si>
   <si>
     <t>Long</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRIED  EGG  PRODUCTS </t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIQUID/FROZEN  EGG  PRODUCTS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,8 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396FF9EC-ADE3-45A7-900B-2F6D8BC18E0C}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -457,7 +477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -465,7 +485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -473,7 +493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -481,7 +501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -489,7 +509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -497,7 +517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -505,7 +525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -513,12 +533,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
